--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -741,15 +741,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminFg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.否 1.是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者權限記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Station</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1050,6 +1062,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1061,9 +1076,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1371,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1389,10 +1401,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
         <v>94</v>
       </c>
@@ -1404,8 +1416,8 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1417,10 +1429,10 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>111</v>
       </c>
@@ -1430,10 +1442,10 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -1441,10 +1453,10 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
@@ -1452,10 +1464,10 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -1463,10 +1475,10 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
@@ -2139,16 +2151,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>120</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="31"/>
@@ -2159,17 +2171,21 @@
         <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="F40" s="18"/>
-      <c r="G40" s="31"/>
+      <c r="G40" s="31" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
@@ -2177,17 +2193,15 @@
         <v>33</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>118</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="18">
-        <v>6</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="31"/>
     </row>
@@ -2196,36 +2210,38 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="18">
+        <v>6</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="18">
-        <v>6</v>
-      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
@@ -2233,15 +2249,17 @@
         <v>36</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="E44" s="18">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
@@ -2249,20 +2267,36 @@
         <v>37</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D46" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E46" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B85FA-F4A3-4978-89C9-D7624F5D5917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView minimized="1" xWindow="516" yWindow="348" windowWidth="22872" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -768,7 +770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1080,8 +1082,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1172,6 +1174,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1207,6 +1226,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1382,11 +1418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2315,7 +2351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B85FA-F4A3-4978-89C9-D7624F5D5917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6090F-A4F3-4EB9-BFF3-391BF78A0918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="516" yWindow="348" windowWidth="22872" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -765,6 +765,14 @@
   <si>
     <t>Station</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTlrNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1421,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2352,11 +2360,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2400,6 +2408,17 @@
         <v>93</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6090F-A4F3-4EB9-BFF3-391BF78A0918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -339,10 +338,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>LastUpdateEmpNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -774,16 +769,19 @@
     <t>TlrNo %</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">LastUpdate </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -791,7 +789,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -799,7 +797,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1090,8 +1088,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1182,23 +1180,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1234,23 +1215,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1426,40 +1390,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="4" max="4" width="12.375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -1472,20 +1436,20 @@
       <c r="F2" s="12"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1460,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1471,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1482,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -1529,7 +1493,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1560,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>30</v>
@@ -1571,16 +1535,16 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="15">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>30</v>
@@ -1591,7 +1555,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="15">
         <f t="shared" ref="A11:A46" si="0">A10+1</f>
         <v>3</v>
@@ -1611,27 +1575,27 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="21" customFormat="1">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1640,7 +1604,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>31</v>
@@ -1650,21 +1614,21 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="33">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>31</v>
@@ -1674,10 +1638,10 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1686,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>31</v>
@@ -1696,10 +1660,10 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1708,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>30</v>
@@ -1719,7 +1683,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1741,7 +1705,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1753,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>19</v>
@@ -1761,16 +1725,16 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="63">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>31</v>
@@ -1780,12 +1744,12 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="21" customFormat="1">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1805,16 +1769,16 @@
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="21" customFormat="1">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -1825,13 +1789,13 @@
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>22</v>
@@ -1845,19 +1809,19 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>19</v>
@@ -1867,13 +1831,13 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>24</v>
@@ -1887,7 +1851,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1896,7 +1860,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>30</v>
@@ -1907,7 +1871,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1919,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="18">
         <v>8</v>
@@ -1927,7 +1891,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1947,38 +1911,38 @@
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="21" customFormat="1">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>30</v>
@@ -1988,19 +1952,19 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="21" customFormat="1">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>30</v>
@@ -2010,19 +1974,19 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="21" customFormat="1">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>30</v>
@@ -2032,19 +1996,19 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="21" customFormat="1">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>30</v>
@@ -2054,19 +2018,19 @@
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="21" customFormat="1">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>30</v>
@@ -2076,19 +2040,19 @@
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="21" customFormat="1">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>30</v>
@@ -2098,19 +2062,19 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="21" customFormat="1">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>30</v>
@@ -2120,19 +2084,19 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="21" customFormat="1">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>30</v>
@@ -2142,19 +2106,19 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="21" customFormat="1">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>30</v>
@@ -2164,19 +2128,19 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="21" customFormat="1">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>30</v>
@@ -2186,79 +2150,79 @@
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="21" customFormat="1">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="31"/>
     </row>
-    <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="21" customFormat="1">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="21" customFormat="1">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="31"/>
     </row>
-    <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="21" customFormat="1">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>47</v>
@@ -2269,7 +2233,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="31"/>
     </row>
-    <row r="43" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="21" customFormat="1">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2287,7 +2251,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2305,13 +2269,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>48</v>
@@ -2321,13 +2285,13 @@
       </c>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>49</v>
@@ -2339,7 +2303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="15"/>
     </row>
   </sheetData>
@@ -2359,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2367,15 +2331,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2386,37 +2350,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB09F7-296E-4994-8C43-55E45B5FE7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -776,12 +777,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -789,7 +790,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -797,7 +798,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1088,8 +1089,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1180,6 +1181,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1215,6 +1233,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1390,25 +1425,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="4" max="4" width="12.36328125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1458,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -1436,7 +1471,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1484,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1495,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1506,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1517,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1528,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1535,7 +1570,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <f>A9+1</f>
         <v>2</v>
@@ -1555,7 +1590,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <f t="shared" ref="A11:A46" si="0">A10+1</f>
         <v>3</v>
@@ -1575,7 +1610,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1">
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1595,7 +1630,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1619,7 +1654,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="33">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1641,7 +1676,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1">
+    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1663,7 +1698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1683,7 +1718,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1705,7 +1740,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1725,7 +1760,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:9" ht="62" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1749,7 +1784,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" s="21" customFormat="1">
+    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1769,7 +1804,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:9" s="21" customFormat="1">
+    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1789,7 +1824,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1809,7 +1844,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1831,7 +1866,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1851,7 +1886,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1871,7 +1906,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1891,7 +1926,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1911,7 +1946,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1933,7 +1968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="21" customFormat="1">
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1955,7 +1990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1977,7 +2012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1">
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1999,7 +2034,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="21" customFormat="1">
+    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2021,7 +2056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="21" customFormat="1">
+    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2043,7 +2078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="21" customFormat="1">
+    <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2065,7 +2100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="21" customFormat="1">
+    <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2087,7 +2122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="21" customFormat="1">
+    <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2109,7 +2144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="21" customFormat="1">
+    <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2131,7 +2166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="21" customFormat="1">
+    <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2153,7 +2188,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="21" customFormat="1">
+    <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2173,7 +2208,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="31"/>
     </row>
-    <row r="40" spans="1:7" s="21" customFormat="1">
+    <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2195,7 +2230,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="21" customFormat="1">
+    <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2213,7 +2248,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="31"/>
     </row>
-    <row r="42" spans="1:7" s="21" customFormat="1">
+    <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2233,7 +2268,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="31"/>
     </row>
-    <row r="43" spans="1:7" s="21" customFormat="1">
+    <row r="43" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2251,7 +2286,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2269,7 +2304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2285,7 +2320,7 @@
       </c>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2303,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
     </row>
   </sheetData>
@@ -2323,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2331,15 +2366,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -2361,7 +2396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2372,7 +2407,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>126</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB09F7-296E-4994-8C43-55E45B5FE7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C11E1A-9D9D-4613-B30B-C1CF9E161735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,49 +31,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,7 +164,7 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -240,15 +240,15 @@
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AD記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
@@ -258,51 +258,51 @@
   </si>
   <si>
     <t>TlrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Entdy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>本、次日日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AdFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GroupNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LogonFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LevelFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
@@ -324,23 +324,23 @@
   </si>
   <si>
     <t>LastDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LastTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -394,15 +394,15 @@
       </rPr>
       <t>9.停用</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用者檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>decimald</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -437,42 +437,42 @@
       </rPr>
       <t>經辦</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TlrItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用者姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReportDb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>報表使用資料庫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0.onLine
 1.onDay
 2.onMon
 3.onHist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BrNo = ,AND TlrNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findByL6041</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -488,75 +488,75 @@
       </rPr>
       <t>定審高風險處理記號</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>限放款審查課設定0.否1是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AmlHighFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限編號1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限編號2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限編號3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限編號4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthNo8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限編號5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限編號6</t>
@@ -581,63 +581,63 @@
   </si>
   <si>
     <t>TlrNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TxTeller</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用單位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用者代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權限等級</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>狀態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>課組別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LtxDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LtxTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TxtNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>停止使用,改記錄於TxTellerAuth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AllowFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>授權等級</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -679,7 +679,7 @@
       <t xml:space="preserve">:1-9
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LoggerFg</t>
@@ -704,86 +704,101 @@
   </si>
   <si>
     <t>findByGroupNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BrNo = ,AND GroupNo &gt;=,AND GroupNo &lt;=,AND LevelFg&gt;=,AND LevelFg&lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MntDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MntEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最後維護時間</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最後維護人員</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>站別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AdminFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0.否 1.是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>管理者權限記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Station</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findByTlrNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TlrNo %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LastUpdate </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -878,6 +893,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -960,10 +982,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,126 +996,130 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{F04443E9-DB5D-4CC7-9673-4ACD11200EDC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1426,24 +1455,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.36328125" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="4"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1487,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -1471,7 +1500,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1513,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1524,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1535,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
@@ -1517,7 +1546,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1557,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1570,7 +1599,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <f>A9+1</f>
         <v>2</v>
@@ -1590,9 +1619,9 @@
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <f t="shared" ref="A11:A46" si="0">A10+1</f>
+        <f t="shared" ref="A11:A47" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1610,7 +1639,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1630,7 +1659,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1654,7 +1683,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1676,7 +1705,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1698,7 +1727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1718,7 +1747,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1740,7 +1769,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1760,7 +1789,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="62" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1784,7 +1813,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1804,7 +1833,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1824,7 +1853,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1844,7 +1873,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1866,7 +1895,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1886,7 +1915,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1906,7 +1935,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1926,7 +1955,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1946,7 +1975,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1968,7 +1997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1990,7 +2019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2012,7 +2041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2034,7 +2063,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2056,7 +2085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2078,7 +2107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2100,7 +2129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2122,7 +2151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2144,7 +2173,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2166,7 +2195,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2188,7 +2217,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2208,138 +2237,158 @@
       <c r="F39" s="18"/>
       <c r="G39" s="31"/>
     </row>
-    <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="18">
+        <v>50</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="31"/>
+    </row>
+    <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C41" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D41" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="31" t="s">
+      <c r="F41" s="18"/>
+      <c r="G41" s="31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="15">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C42" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D42" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="18">
-        <v>6</v>
-      </c>
+      <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="31"/>
     </row>
-    <row r="43" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="18">
+        <v>6</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="15">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B44" s="16" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E45" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="15">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B45" s="16" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="15">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B46" s="16" t="s">
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="15"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2351,7 +2400,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2366,15 +2415,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -2396,7 +2445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2407,7 +2456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>126</v>
       </c>
@@ -2419,7 +2468,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C11E1A-9D9D-4613-B30B-C1CF9E161735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -640,6 +629,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>LoggerFg</t>
+  </si>
+  <si>
+    <r>
+      <t>LOG</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -648,8 +643,91 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>經辦</t>
-    </r>
+      <t>記號</t>
+    </r>
+  </si>
+  <si>
+    <t>TlrNo</t>
+  </si>
+  <si>
+    <t>findByGroupNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrNo = ,AND GroupNo &gt;=,AND GroupNo &lt;=,AND LevelFg&gt;=,AND LevelFg&lt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MntDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MntEmpNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後維護時間</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後維護人員</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>站別</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminFg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.否 1.是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者權限記號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTlrNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo %</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LastUpdate </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -657,7 +735,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:0;</t>
+      <t>0:</t>
     </r>
     <r>
       <rPr>
@@ -667,7 +745,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>主管</t>
+      <t>經辦</t>
     </r>
     <r>
       <rPr>
@@ -676,17 +754,9 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">:1-9
-</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoggerFg</t>
-  </si>
-  <si>
-    <r>
-      <t>LOG</t>
+      <t xml:space="preserve">
+CdCode.AllowFg
+1 :</t>
     </r>
     <r>
       <rPr>
@@ -696,96 +766,66 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>記號</t>
-    </r>
-  </si>
-  <si>
-    <t>TlrNo</t>
-  </si>
-  <si>
-    <t>findByGroupNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrNo = ,AND GroupNo &gt;=,AND GroupNo &lt;=,AND LevelFg&gt;=,AND LevelFg&lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MntDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MntEmpNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後維護時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後維護人員</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>站別</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdminFg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.否 1.是</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理者權限記號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTlrNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo %</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LastUpdate </t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>EmailAddress</t>
+      <t xml:space="preserve">課主管
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">部門主管
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>副總經理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -900,6 +940,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -996,11 +1043,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1009,9 +1056,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,10 +1065,10 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,9 +1077,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1060,10 +1101,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1084,7 +1122,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,6 +1137,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1110,16 +1154,13 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{F04443E9-DB5D-4CC7-9673-4ACD11200EDC}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1210,23 +1251,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1262,23 +1286,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1454,11 +1461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1466,929 +1473,919 @@
     <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="10" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <f t="shared" ref="A11:A47" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16">
+        <v>60</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="16">
+        <v>8</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="16">
+        <v>8</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="16">
+        <v>50</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <f t="shared" si="0"/>
+      <c r="C42" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="B44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="18">
-        <v>60</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="18">
-        <v>8</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="18">
-        <v>8</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="18">
-        <v>50</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="19" t="s">
+      <c r="B45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E45" s="16">
         <v>6</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="19" t="s">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="19" t="s">
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E47" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="18">
-        <v>6</v>
-      </c>
-    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2407,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2424,13 +2421,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2447,10 +2444,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>92</v>
@@ -2458,10 +2455,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
